--- a/output/20141112_e10b989_ChaperoneMacro_pycket_fast.xlsx
+++ b/output/20141112_e10b989_ChaperoneMacro_pycket_fast.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="50">
   <si>
     <t>criterion</t>
   </si>
@@ -57,19 +57,22 @@
     <t>20</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>35</t>
@@ -78,19 +81,16 @@
     <t>38</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>48</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>50</t>
@@ -102,34 +102,16 @@
     <t>54</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
     <t>Racket</t>
   </si>
   <si>
+    <t>PycketCallgraph</t>
+  </si>
+  <si>
     <t>Pycket</t>
-  </si>
-  <si>
-    <t>PycketCallgraph</t>
   </si>
   <si>
     <t>Ode</t>
@@ -254,16 +236,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
       </c>
       <c r="F2" t="n">
         <v>5241.0</v>
@@ -274,16 +256,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
       </c>
       <c r="F3" t="n">
         <v>5323.0</v>
@@ -294,16 +276,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F4" t="n">
         <v>2896.0</v>
@@ -314,16 +296,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
         <v>2852.0</v>
@@ -334,16 +316,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F6" t="n">
         <v>2860.0</v>
@@ -354,16 +336,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
         <v>53043.0</v>
@@ -374,16 +356,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F8" t="n">
         <v>53347.0</v>
@@ -394,16 +376,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n">
         <v>51559.0</v>
@@ -414,19 +396,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F10" t="n">
-        <v>2260.0</v>
+        <v>36434.0</v>
       </c>
     </row>
     <row r="11">
@@ -434,19 +416,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F11" t="n">
-        <v>2380.0</v>
+        <v>36682.0</v>
       </c>
     </row>
     <row r="12">
@@ -454,19 +436,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" t="n">
-        <v>2388.0</v>
+        <v>36606.0</v>
       </c>
     </row>
     <row r="13">
@@ -474,19 +456,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F13" t="n">
-        <v>1796.0</v>
+        <v>2280.0</v>
       </c>
     </row>
     <row r="14">
@@ -494,19 +476,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n">
-        <v>1688.0</v>
+        <v>2252.0</v>
       </c>
     </row>
     <row r="15">
@@ -514,19 +496,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F15" t="n">
-        <v>1684.0</v>
+        <v>2192.0</v>
       </c>
     </row>
     <row r="16">
@@ -534,19 +516,19 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>2580.0</v>
+        <v>2208.0</v>
       </c>
     </row>
     <row r="17">
@@ -554,19 +536,19 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F17" t="n">
-        <v>2536.0</v>
+        <v>1676.0</v>
       </c>
     </row>
     <row r="18">
@@ -574,19 +556,19 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
       <c r="F18" t="n">
-        <v>2236.0</v>
+        <v>2428.0</v>
       </c>
     </row>
     <row r="19">
@@ -594,19 +576,19 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
       <c r="F19" t="n">
-        <v>2260.0</v>
+        <v>2288.0</v>
       </c>
     </row>
     <row r="20">
@@ -614,19 +596,19 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F20" t="n">
-        <v>36618.0</v>
+        <v>24605.0</v>
       </c>
     </row>
     <row r="21">
@@ -634,19 +616,19 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F21" t="n">
-        <v>36934.0</v>
+        <v>24429.0</v>
       </c>
     </row>
     <row r="22">
@@ -654,19 +636,19 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F22" t="n">
-        <v>36734.0</v>
+        <v>24765.0</v>
       </c>
     </row>
     <row r="23">
@@ -674,19 +656,19 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F23" t="n">
-        <v>2208.0</v>
+        <v>2448.0</v>
       </c>
     </row>
     <row r="24">
@@ -694,19 +676,19 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F24" t="n">
-        <v>2204.0</v>
+        <v>1672.0</v>
       </c>
     </row>
     <row r="25">
@@ -714,139 +696,19 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F25" t="n">
-        <v>2192.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1664.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" t="n">
-        <v>24837.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" t="n">
-        <v>24529.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" t="n">
-        <v>24597.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1688.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1668.0</v>
+        <v>1696.0</v>
       </c>
     </row>
   </sheetData>
@@ -874,59 +736,59 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F2" t="n">
-        <v>2388.0</v>
+        <v>2288.0</v>
       </c>
       <c r="G2" t="n">
-        <v>2388.0</v>
+        <v>2288.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
-        <v>2580.0</v>
+        <v>2428.0</v>
       </c>
       <c r="G3" t="n">
-        <v>2580.0</v>
+        <v>2428.0</v>
       </c>
     </row>
     <row r="4">
@@ -934,16 +796,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F4" t="n">
         <v>5241.0</v>
@@ -954,48 +816,48 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F5" t="n">
-        <v>2380.0</v>
+        <v>2280.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2380.0</v>
+        <v>2280.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F6" t="n">
-        <v>2536.0</v>
+        <v>2448.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2536.0</v>
+        <v>2448.0</v>
       </c>
     </row>
     <row r="7">
@@ -1003,16 +865,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F7" t="n">
         <v>5323.0</v>
@@ -1023,25 +885,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F8" t="n">
-        <v>2226.6666666666665</v>
+        <v>2217.3333333333335</v>
       </c>
       <c r="G8" t="n">
-        <v>2222.0</v>
+        <v>2208.0</v>
       </c>
     </row>
     <row r="9">
@@ -1049,39 +911,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F9" t="n">
-        <v>1698.0</v>
+        <v>1681.3333333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>1686.0</v>
+        <v>1676.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F10" t="n">
         <v>2869.3333333333335</v>
@@ -1095,45 +957,45 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F11" t="n">
-        <v>24654.333333333332</v>
+        <v>24599.666666666668</v>
       </c>
       <c r="G11" t="n">
-        <v>24597.0</v>
+        <v>24605.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F12" t="n">
-        <v>36762.0</v>
+        <v>36574.0</v>
       </c>
       <c r="G12" t="n">
-        <v>36734.0</v>
+        <v>36606.0</v>
       </c>
     </row>
     <row r="13">
@@ -1141,16 +1003,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F13" t="n">
         <v>52649.666666666664</v>
